--- a/ModelRuns/ModelComparisons-TCSAM02-GMACS/Tables_G-T_ModelDescriptions.xlsx
+++ b/ModelRuns/ModelComparisons-TCSAM02-GMACS/Tables_G-T_ModelDescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamstockhausen/Work/StockAssessments-Crab/Assessments/TannerCrab/2025-05_TannerCrab/TannerCrab_202505/ModelRuns/ModelComparisons-TCSAM02-GMACS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505CA2A6-9BA5-764A-8B2E-9A31C54C6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047A25A5-EF89-2548-ABEF-2C84ABD72CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="940" windowWidth="30360" windowHeight="19280" activeTab="5" xr2:uid="{A0F32B82-CDD5-6C44-9600-AA0FFBC75208}"/>
+    <workbookView xWindow="80" yWindow="940" windowWidth="30360" windowHeight="19280" activeTab="2" xr2:uid="{A0F32B82-CDD5-6C44-9600-AA0FFBC75208}"/>
   </bookViews>
   <sheets>
     <sheet name="G25_05 Biological Processes" sheetId="13" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>1953-1991</t>
   </si>
   <si>
-    <t>GTF</t>
-  </si>
-  <si>
     <t>bycatch in groundfish fisheries</t>
   </si>
   <si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t>priors on base and multipliers based on uncertainty in max age</t>
+  </si>
+  <si>
+    <t>GF All</t>
   </si>
 </sst>
 </file>
@@ -1080,36 +1080,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1131,14 +1101,44 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1512,13 +1512,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -1545,8 +1545,8 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="80" t="s">
-        <v>155</v>
+      <c r="E7" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -1572,13 +1572,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
@@ -1588,8 +1588,8 @@
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="80" t="s">
-        <v>156</v>
+      <c r="E10" s="70" t="s">
+        <v>155</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -1625,8 +1625,8 @@
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="80" t="s">
-        <v>156</v>
+      <c r="E13" s="70" t="s">
+        <v>155</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -1638,8 +1638,8 @@
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="80" t="s">
-        <v>154</v>
+      <c r="E14" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>29</v>
@@ -1657,13 +1657,13 @@
       <c r="C16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="87" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="87" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -1672,11 +1672,11 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="9"/>
-      <c r="D17" s="70"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="70"/>
+        <v>157</v>
+      </c>
+      <c r="F17" s="87"/>
       <c r="G17" s="8" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E23" s="81"/>
+      <c r="E23" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1752,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>45</v>
@@ -1872,16 +1872,16 @@
     </row>
     <row r="13" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -1890,34 +1890,34 @@
         <v>57</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="47"/>
       <c r="D15" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="47"/>
       <c r="D16" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
@@ -1986,30 +1986,30 @@
         <v>68</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
       <c r="E23" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
       <c r="E24" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
@@ -2018,10 +2018,10 @@
         <v>69</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
@@ -2030,10 +2030,10 @@
         <v>59</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
@@ -2098,8 +2098,8 @@
   </sheetPr>
   <dimension ref="C1:G50"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2130,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="83"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">
@@ -2154,7 +2154,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="74" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       <c r="E6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="74" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       <c r="E7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="74" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
       <c r="E8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="74" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2202,10 +2202,10 @@
         <v>68</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -2214,10 +2214,10 @@
         <v>69</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -2226,10 +2226,10 @@
         <v>59</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -2240,10 +2240,10 @@
         <v>68</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -2252,10 +2252,10 @@
         <v>69</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="85" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -2264,57 +2264,57 @@
         <v>59</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C15" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>75</v>
-      </c>
       <c r="E15" s="44"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>77</v>
+      <c r="F16" s="74" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="74" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2323,36 +2323,36 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="74" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="74" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="74" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
         <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="74" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="14"/>
@@ -2374,24 +2374,24 @@
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="74" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2565,16 +2565,16 @@
     </row>
     <row r="3" spans="3:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>145</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="89"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
@@ -2597,7 +2597,7 @@
       <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="80" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="19"/>
@@ -2610,7 +2610,7 @@
       <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="19"/>
@@ -2625,7 +2625,7 @@
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="80" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="19"/>
@@ -2638,7 +2638,7 @@
       <c r="E8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="19"/>
@@ -2651,10 +2651,10 @@
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -2664,10 +2664,10 @@
         <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>129</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -2679,10 +2679,10 @@
         <v>39</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>135</v>
       </c>
       <c r="G11" s="22"/>
     </row>
@@ -2692,79 +2692,79 @@
         <v>41</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>135</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="93"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="90" t="s">
-        <v>115</v>
+      <c r="F14" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="90" t="s">
-        <v>118</v>
+      <c r="F15" s="80" t="s">
+        <v>117</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="90" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>117</v>
       </c>
       <c r="G17" s="19"/>
     </row>
@@ -2808,198 +2808,198 @@
   <sheetData>
     <row r="3" spans="3:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95" t="s">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="3:17" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="L5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>85</v>
-      </c>
       <c r="M5" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N5" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="O5" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>134</v>
-      </c>
       <c r="Q5" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="77" t="s">
+      <c r="I6" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="L6" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="32" t="s">
+      <c r="O6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="Q6" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="78"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>90</v>
-      </c>
       <c r="Q7" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="3:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="77" t="s">
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="N9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="P9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="78"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="96"/>
       <c r="K10" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="3:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3009,28 +3009,28 @@
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="79"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="97"/>
       <c r="K11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="O11" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3040,589 +3040,589 @@
       <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="77" t="s">
+      <c r="I12" s="93"/>
+      <c r="J12" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="93"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="93"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="93"/>
+      <c r="J15" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K15" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="M15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="37" t="s">
+      <c r="O15" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="75"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="36" t="s">
+    </row>
+    <row r="16" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="93"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="93"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="L17" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="36" t="s">
+      <c r="N17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="93"/>
+      <c r="J18" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="93"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="93"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="75"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="26" t="s">
+      <c r="L20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I15" s="75"/>
-      <c r="J15" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I16" s="75"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="75"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="26" t="s">
+      <c r="O20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I18" s="75"/>
-      <c r="J18" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="N18" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q18" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I19" s="75"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="N19" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="75"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="34"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="71" t="s">
+      <c r="I21" s="93"/>
+      <c r="J21" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="N21" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="P21" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="32" t="s">
+    </row>
+    <row r="22" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="93"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="93"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="93"/>
+      <c r="J24" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="32" t="s">
+      <c r="K24" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="93"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="93"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="93"/>
+      <c r="J27" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="93"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="33" t="s">
+      <c r="N28" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q21" s="32" t="s">
+      <c r="O28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I22" s="75"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="31" t="s">
+      <c r="Q28" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="93"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="L29" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="93"/>
+      <c r="J30" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="93"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="O22" s="31" t="s">
+      <c r="L31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q31" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="93"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="P22" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="75"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="75"/>
-      <c r="J24" s="71" t="s">
+      <c r="L32" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="N32" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="9:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="93"/>
+      <c r="J33" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" s="85" t="s">
         <v>87</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I25" s="75"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="75"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I27" s="75"/>
-      <c r="J27" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I28" s="75"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P28" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q28" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="75"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="O29" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q29" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="75"/>
-      <c r="J30" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="P30" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q30" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="75"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O31" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P31" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q31" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="75"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="O32" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P32" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q32" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="9:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="75"/>
-      <c r="J33" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>88</v>
       </c>
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q33" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="9:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="94"/>
+      <c r="J34" s="26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="9:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I34" s="76"/>
-      <c r="J34" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="K34" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="L34" s="96" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>87</v>
       </c>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
       <c r="O34" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q34" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3653,7 @@
   </sheetPr>
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3676,15 +3676,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>1</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>1</v>
@@ -3707,21 +3707,21 @@
         <v>352</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="52">
         <v>352</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -3780,21 +3780,21 @@
         <v>2</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="60" t="s">
-        <v>121</v>
-      </c>
       <c r="G2" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="52">
         <v>357</v>
@@ -3809,13 +3809,13 @@
         <v>1.7804278441334701E-2</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="64"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="52">
         <v>352</v>
@@ -3830,14 +3830,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="64"/>
       <c r="N4" s="65"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="52">
         <v>352</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
